--- a/plottar/kullar.totalt.per.lya.kärnlyor.xlsx
+++ b/plottar/kullar.totalt.per.lya.kärnlyor.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Litters low phase</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Litters increase phase</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Litters peak phase</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Total litters</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Litters low phase</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Litters increase phase</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Litters peak phase</t>
         </is>
       </c>
     </row>
@@ -390,17 +390,25 @@
           <t>FSZZ020</t>
         </is>
       </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -409,17 +417,25 @@
           <t>FSZZ033</t>
         </is>
       </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -428,17 +444,25 @@
           <t>FSZZ024</t>
         </is>
       </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -447,17 +471,25 @@
           <t>FSZZ031</t>
         </is>
       </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -466,17 +498,25 @@
           <t>FSZZ029</t>
         </is>
       </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -485,17 +525,25 @@
           <t>FSZZ042</t>
         </is>
       </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -504,17 +552,25 @@
           <t>FSZZ018</t>
         </is>
       </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -523,17 +579,25 @@
           <t>FSZZ019</t>
         </is>
       </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -542,17 +606,25 @@
           <t>FSZZ009</t>
         </is>
       </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -561,17 +633,25 @@
           <t>FSZZ010</t>
         </is>
       </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -580,17 +660,25 @@
           <t>FSZZ013</t>
         </is>
       </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -599,17 +687,25 @@
           <t>FSZZ014</t>
         </is>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -618,17 +714,25 @@
           <t>FSZZ016</t>
         </is>
       </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -637,17 +741,25 @@
           <t>FSZZ030</t>
         </is>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -656,17 +768,25 @@
           <t>FSZZ027</t>
         </is>
       </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -675,17 +795,25 @@
           <t>FSZZ032</t>
         </is>
       </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -694,17 +822,25 @@
           <t>FSZZ035</t>
         </is>
       </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -713,17 +849,25 @@
           <t>FSZZ064</t>
         </is>
       </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -732,17 +876,25 @@
           <t>FSZZ066</t>
         </is>
       </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -751,17 +903,25 @@
           <t>FSZZ080</t>
         </is>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -770,17 +930,25 @@
           <t>FSZZ015</t>
         </is>
       </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -789,17 +957,25 @@
           <t>FSZZ028</t>
         </is>
       </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -808,17 +984,25 @@
           <t>FSZZ037</t>
         </is>
       </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -827,17 +1011,25 @@
           <t>FSZZ023</t>
         </is>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -846,17 +1038,25 @@
           <t>FSZZ034</t>
         </is>
       </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -865,17 +1065,25 @@
           <t>FSZZ090</t>
         </is>
       </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -884,17 +1092,25 @@
           <t>FSZZ012</t>
         </is>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -903,17 +1119,25 @@
           <t>FSZZ036</t>
         </is>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -922,17 +1146,25 @@
           <t>FSZZ062</t>
         </is>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -941,17 +1173,25 @@
           <t>FSZZ106</t>
         </is>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -960,17 +1200,25 @@
           <t>FSZZ025</t>
         </is>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -979,17 +1227,25 @@
           <t>FSZZ026</t>
         </is>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -998,17 +1254,25 @@
           <t>FSZZ040</t>
         </is>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1017,17 +1281,25 @@
           <t>FSZZ096</t>
         </is>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1036,17 +1308,25 @@
           <t>FSZZ102</t>
         </is>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1055,17 +1335,52 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B37">
-        <v>186</v>
-      </c>
-      <c r="C37">
-        <v>29</v>
-      </c>
-      <c r="D37">
-        <v>61</v>
-      </c>
-      <c r="E37">
-        <v>96</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mean per year</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
       </c>
     </row>
   </sheetData>
